--- a/diana/Tabele memorii.xlsx
+++ b/diana/Tabele memorii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F246478-0AA7-4961-96E9-CAF7AF27CC21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58646D3B-C14F-453E-9857-BE74E06ACBC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>Adrese</t>
   </si>
@@ -104,6 +104,57 @@
   </si>
   <si>
     <t xml:space="preserve">Decodificrea memoriilor </t>
+  </si>
+  <si>
+    <t>Serial si paralel</t>
+  </si>
+  <si>
+    <t>0DD0H</t>
+  </si>
+  <si>
+    <t>0DD2H</t>
+  </si>
+  <si>
+    <t>0C50H</t>
+  </si>
+  <si>
+    <t>0C52H</t>
+  </si>
+  <si>
+    <t>0D50H</t>
+  </si>
+  <si>
+    <t>0D52H</t>
+  </si>
+  <si>
+    <t>0D54H</t>
+  </si>
+  <si>
+    <t>0D56H</t>
+  </si>
+  <si>
+    <t>0B50H</t>
+  </si>
+  <si>
+    <t>0B52H</t>
+  </si>
+  <si>
+    <t>0B54H</t>
+  </si>
+  <si>
+    <t>0B56H</t>
+  </si>
+  <si>
+    <t>0FD0H</t>
+  </si>
+  <si>
+    <t>A10*/A2</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Afisaje</t>
   </si>
 </sst>
 </file>
@@ -119,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +183,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,13 +210,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:U15"/>
+  <dimension ref="A4:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,6 +986,886 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/diana/Tabele memorii.xlsx
+++ b/diana/Tabele memorii.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58646D3B-C14F-453E-9857-BE74E06ACBC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E8A29-7215-460E-A32F-5B766812D1AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Adrese</t>
   </si>
@@ -155,6 +155,39 @@
   </si>
   <si>
     <t>Afisaje</t>
+  </si>
+  <si>
+    <t>00C0H</t>
+  </si>
+  <si>
+    <t>00C7H</t>
+  </si>
+  <si>
+    <t>00C8H</t>
+  </si>
+  <si>
+    <t>00C9H</t>
+  </si>
+  <si>
+    <t>00CAH</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>Afis</t>
+  </si>
+  <si>
+    <t>/t2</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>Sl2</t>
+  </si>
+  <si>
+    <t>00CBH</t>
   </si>
 </sst>
 </file>
@@ -515,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:U57"/>
+  <dimension ref="A4:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1810,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>1</v>
       </c>
@@ -1818,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>1</v>
       </c>
@@ -1829,7 +1862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>0</v>
       </c>
@@ -1837,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>0</v>
       </c>
@@ -1845,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>0</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>0</v>
       </c>
@@ -1861,9 +1894,390 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>44</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" t="s">
+        <v>13</v>
+      </c>
+      <c r="L57" t="s">
+        <v>14</v>
+      </c>
+      <c r="M57" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" t="s">
+        <v>16</v>
+      </c>
+      <c r="O57" t="s">
+        <v>17</v>
+      </c>
+      <c r="P57" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>19</v>
+      </c>
+      <c r="R57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
